--- a/Financial Analysis/EQUITIES/KO.xlsx
+++ b/Financial Analysis/EQUITIES/KO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/zxt18_ic_ac_uk/Documents/Financial Analysis/EQUITIES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{743A4A55-07BA-4E7A-812F-F6B48017A1E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{05EBF1B9-56E9-4CC3-8E2E-52B18C9B981A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6671F2B3-C9DA-411C-956A-F3072F653070}"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="2" r:id="rId1"/>
@@ -627,7 +627,7 @@
       <tp t="s">
         <v>#N/A N/A</v>
         <stp/>
-        <stp>BDH|1320005881840777323</stp>
+        <stp>BDH|6881559836412032027</stp>
         <tr r="A8" s="2"/>
       </tp>
     </main>
@@ -956,13 +956,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -980,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>40179</v>
+        <v>40178</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f>_xll.BDH(B1,B7:C7,B2,B3,"Dir=V","Dts=S","Sort=D","Quote=C","QtTyp=P","Days=T",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=3;rows=145")</f>
+        <f>_xll.BDH(B1,B7:C7,B2,B3,"Dir=V","Dts=S","Sort=D","Quote=C","QtTyp=P","Days=T",CONCATENATE("Per=c",B4),"DtFmt=D","UseDPDF=Y",CONCATENATE("FX=",B5),"cols=3;rows=146")</f>
         <v>44592</v>
       </c>
       <c r="B8">
@@ -2612,6 +2612,17 @@
       </c>
       <c r="C152">
         <v>385407882</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>40178</v>
+      </c>
+      <c r="B153">
+        <v>28.5</v>
+      </c>
+      <c r="C153">
+        <v>385784436</v>
       </c>
     </row>
   </sheetData>
@@ -2852,7 +2863,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{987F2CCA-48EA-4A6B-B966-31B5F9EAA30F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{11870968-8964-4CE7-B35B-2A62E37DCAF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -2871,7 +2882,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5376C917-A640-4642-992E-EC68AB67E5AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8E88B46-C1D7-4CB8-8300-3DD775FD9D3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
@@ -2879,18 +2890,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A5A701-CA71-4874-9FBD-875AB790E9A1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E242CEB-2C9A-4411-96A0-D00C4B53D446}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="8256a770-083e-4b7c-814e-c5dff0793361"/>
+    <ds:schemaRef ds:uri="bac3e513-b8ad-4e95-8656-605fcb31fd33"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="bac3e513-b8ad-4e95-8656-605fcb31fd33"/>
-    <ds:schemaRef ds:uri="8256a770-083e-4b7c-814e-c5dff0793361"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>